--- a/Hyperparameter_tuning_check.xlsx
+++ b/Hyperparameter_tuning_check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tugas\COOLEYAH\SMT 8\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tugas\COOLEYAH\SMT 8\SKRIPSI\LFP_Battery_SoC_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040F28C-C3A0-4541-A12D-96045428222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B60901-EB64-4C5A-BA0C-97D6FE65F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C2E87290-D41A-4A5B-9E6C-38B223B90504}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
   <si>
     <t>num_layer</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>0.010197716299444437</t>
+  </si>
+  <si>
+    <t>0.008670924697071314</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,22 +186,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -223,77 +215,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -619,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB372AD-74CC-43D6-B805-43BCBA3CBBDF}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +891,7 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -990,7 +911,7 @@
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1009,6 +930,9 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,11 +1363,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
-    <cfRule type="top10" dxfId="5" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F16">
-    <cfRule type="top10" dxfId="0" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1452,7 +1376,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
